--- a/Andrew-annotations/MPAA_Q2_2013.xlsx
+++ b/Andrew-annotations/MPAA_Q2_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EF9F1-E00B-47B2-9B7C-E1C9CE71BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE1D95-1D70-4D65-9D7A-7DA936396348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -747,19 +747,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="288" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -840,22 +840,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -942,16 +942,16 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1108,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1128,22 +1128,22 @@
         <v>46</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
